--- a/src/test/resources/testData/InstituteOnBoardingRegistration_TestData.xlsx
+++ b/src/test/resources/testData/InstituteOnBoardingRegistration_TestData.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9215"/>
+    <workbookView windowWidth="10895" windowHeight="4872"/>
   </bookViews>
   <sheets>
     <sheet name="institute-onboard-registration" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1:I2"/>
 </workbook>
 </file>
 
@@ -55,7 +56,7 @@
     <t>Karnataka</t>
   </si>
   <si>
-    <t>C:\Users\shirv\OneDrive\Pictures\Eq5I3BmVEAA0tj3.jpg</t>
+    <t>C:\Users\shirv\git\SNI-Automation-Project\src\test\resources\resources\Eq5I3BmVEAA0tj3.jpg</t>
   </si>
   <si>
     <t>welcome123</t>
@@ -68,8 +69,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -90,6 +91,22 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -104,17 +121,79 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -126,15 +205,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -142,24 +219,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,66 +228,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,13 +248,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,169 +428,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,32 +457,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,15 +483,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -521,11 +492,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,18 +545,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -574,137 +575,137 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1029,15 +1030,18 @@
   <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="2" width="15.2222222222222" customWidth="1"/>
+    <col min="1" max="1" width="15.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="29.8888888888889" customWidth="1"/>
     <col min="3" max="3" width="14.5555555555556" customWidth="1"/>
-    <col min="7" max="7" width="76.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="15.1111111111111" customWidth="1"/>
+    <col min="7" max="7" width="87.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="12.4444444444444" customWidth="1"/>
     <col min="9" max="9" width="17.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1102,7 +1106,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="Udupi"/>
-    <hyperlink ref="B2" r:id="rId2" display="vedant.institute234@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId2" display="vedant.institute234@gmail.com" tooltip="mailto:vedant.institute234@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
